--- a/biology/Zoologie/Harpago/Harpago.xlsx
+++ b/biology/Zoologie/Harpago/Harpago.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Harpago est un genre de mollusques gastéropodes de la famille des Strombidae, proche du (et anciennement confondu avec le) genre Lambis.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Harpago a été créé en 1852 par le zoologiste danois Otto A. L. Mørch (1828-1878).
 </t>
@@ -542,12 +556,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (19 octobre 2015)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (19 octobre 2015) :
 Harpago arthriticus (Röding, 1798)
 Harpago chiragra (Linnaeus, 1758)
-Certaines sources[2] ajoutent Harpago rugosa (G.B. Sowerby II, 1842), que WoRMS considère comme la sous-espèce Harpago chiragra rugosus. De même, d'autres sources confondent les deux espèces via la sous-espèce Harpago chiragra arthritica.
+Certaines sources ajoutent Harpago rugosa (G.B. Sowerby II, 1842), que WoRMS considère comme la sous-espèce Harpago chiragra rugosus. De même, d'autres sources confondent les deux espèces via la sous-espèce Harpago chiragra arthritica.
 			Harpago arthriticus.
 			Harpago chiragra.
 			Harpago arthriticus ; longueur 138 mm ; origine Philippines.
